--- a/medicine/Psychotrope/Haacht_(brasserie)/Haacht_(brasserie).xlsx
+++ b/medicine/Psychotrope/Haacht_(brasserie)/Haacht_(brasserie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie Haacht est une brasserie belge, située à Boortmeerbeek dans la province du Brabant flamand.
-La brasserie naît en 1898 sous le nom de Brasserie et Laiterie de Haecht[1]. En 1967, elle fait l'objet d'un arrêt important de la Cour de Justice européenne, dans l'affaire no 23/67 "SA Brasserie de Haecht c. Consorts Wilkin-Janssen", en matière de concurrence[2].
+La brasserie naît en 1898 sous le nom de Brasserie et Laiterie de Haecht. En 1967, elle fait l'objet d'un arrêt important de la Cour de Justice européenne, dans l'affaire no 23/67 "SA Brasserie de Haecht c. Consorts Wilkin-Janssen", en matière de concurrence.
 La brasserie est une filiale de la Société Commerciale de Brasserie - Brouwerij Handelsmaatschappij dont l'action est cotée à la Bourse de Bruxelles. 
 Elle s'est étendue en absorbant ou en rachetant les brasseries suivantes qui, de ce fait, ont disparu :
 Bavaro-Belge (Bruxelles),
@@ -533,7 +545,9 @@
           <t>Les bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La brasserie produit des bières de fermentation basse :
 des pils :
